--- a/xls/14002-108-240003833_1.xlsx
+++ b/xls/14002-108-240003833_1.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ผู้ป่วยนอก (OPD)</t>
+          <t>ผู้ป่วยนอก</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">

--- a/xls/14002-108-240003833_1.xlsx
+++ b/xls/14002-108-240003833_1.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Member Co-Pay" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Insured Co-Pay" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -508,7 +509,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Null</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -526,14 +527,81 @@
           <t>ผู้ป่วยนอก</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Policy No</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Card No</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Coverage</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Insured Co-Pay</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Limit</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Coverage (raw)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>MatchScore</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Matched</t>
         </is>
       </c>
     </row>
